--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638640.619264887</v>
+        <v>3636096.832519431</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6811014252881</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651809</v>
+        <v>135.6403760196313</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>20.92495819607953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807541</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642701</v>
+        <v>18.19058462642704</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>130.3186856946427</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>78.67090732428116</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="X4" t="n">
-        <v>214.7605587822046</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>124.1559211056359</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
-        <v>197.1188673714096</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>271.205787565012</v>
+        <v>103.2789529957477</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9661877488792</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881309</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673007</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605715127</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428075</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012179</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>212.4287627768728</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>55.30088041042195</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.14614278817813</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>104.8913819999787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.65115569188822</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
       <c r="C2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
       <c r="D2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
       <c r="E2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763411</v>
+        <v>287.1138724187706</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467391</v>
+        <v>49.15993901467334</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935567</v>
+        <v>141.9970572935563</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959981</v>
+        <v>294.0714735959975</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795989</v>
+        <v>494.9530007795981</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670342</v>
+        <v>703.698809467033</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288963</v>
+        <v>887.4762960288953</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108069</v>
+        <v>1009.825128108068</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060722</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060722</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193407</v>
+        <v>899.1940867193396</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357949</v>
+        <v>684.7549646357937</v>
       </c>
       <c r="U2" t="n">
-        <v>431.0698539958856</v>
+        <v>431.0698539958845</v>
       </c>
       <c r="V2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
       <c r="W2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
       <c r="X2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.0266067583292</v>
+        <v>294.0593731679741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.45740238129065</v>
+        <v>216.6599758725228</v>
       </c>
       <c r="C3" t="n">
-        <v>65.45740238129065</v>
+        <v>42.20694659139579</v>
       </c>
       <c r="D3" t="n">
-        <v>65.45740238129065</v>
+        <v>42.20694659139579</v>
       </c>
       <c r="E3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371057</v>
+        <v>121.2843699815219</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433174</v>
+        <v>267.8970260111287</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299038</v>
+        <v>528.6460126286574</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779531</v>
+        <v>738.5421433767068</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760993</v>
+        <v>908.336301274853</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634677</v>
+        <v>1025.278016062221</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060722</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155242</v>
+        <v>1035.15693115524</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155242</v>
+        <v>886.5091315712112</v>
       </c>
       <c r="T3" t="n">
-        <v>903.521895100047</v>
+        <v>886.5091315712112</v>
       </c>
       <c r="U3" t="n">
-        <v>903.521895100047</v>
+        <v>886.5091315712112</v>
       </c>
       <c r="V3" t="n">
-        <v>903.521895100047</v>
+        <v>886.5091315712112</v>
       </c>
       <c r="W3" t="n">
-        <v>649.2845383718454</v>
+        <v>632.2717748430096</v>
       </c>
       <c r="X3" t="n">
-        <v>441.4330381663126</v>
+        <v>424.4202746374767</v>
       </c>
       <c r="Y3" t="n">
-        <v>233.6727394013587</v>
+        <v>216.6599758725228</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.8736662615179</v>
+        <v>100.5361881350338</v>
       </c>
       <c r="C4" t="n">
-        <v>315.8736662615179</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="D4" t="n">
-        <v>315.8736662615179</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9605726791248</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="K4" t="n">
         <v>126.3277805481199</v>
@@ -4495,43 +4495,43 @@
         <v>316.5471352504852</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570824</v>
+        <v>527.4958971570823</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210599</v>
+        <v>738.8633854210598</v>
       </c>
       <c r="O4" t="n">
-        <v>917.249813883632</v>
+        <v>917.2498138836308</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097374</v>
+        <v>1047.079201097373</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060722</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060722</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060723</v>
+        <v>846.7351778287835</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060723</v>
+        <v>621.2639235784768</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060723</v>
+        <v>621.2639235784768</v>
       </c>
       <c r="V4" t="n">
-        <v>798.8467708548366</v>
+        <v>366.57943537259</v>
       </c>
       <c r="W4" t="n">
-        <v>532.8035236172801</v>
+        <v>100.5361881350338</v>
       </c>
       <c r="X4" t="n">
-        <v>315.8736662615179</v>
+        <v>100.5361881350338</v>
       </c>
       <c r="Y4" t="n">
-        <v>315.8736662615179</v>
+        <v>100.5361881350338</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
         <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4571,7 +4571,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243022</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329.2689750668272</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>929.4454986872004</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>732.636420318638</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>732.636420318638</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>497.4843120868953</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>497.4843120868953</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>497.4843120868953</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>497.4843120868953</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4735,10 +4735,10 @@
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>855.7455529641967</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.9529738206666</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829027</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886157</v>
+        <v>614.6763638227419</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818652</v>
+        <v>614.6763638227419</v>
       </c>
       <c r="E8" t="n">
-        <v>332.1375272818652</v>
+        <v>228.8881112244977</v>
       </c>
       <c r="F8" t="n">
-        <v>325.1920265326617</v>
+        <v>221.9426104752942</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="9">
@@ -4887,22 +4887,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1349.048382530606</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1126.069901725341</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>836.9515642291789</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5027,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797194</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797194</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.142269263731</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684178</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188013</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908942</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908942</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908942</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908942</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.528494205774</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533437</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.50854132755</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290589</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925714</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490412</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,28 +5264,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191926</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845745</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400352</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639639</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400706</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121636</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121636</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121636</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138407</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703105</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121636</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121636</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270434</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5756,22 +5756,22 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5783,10 +5783,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832237</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553166</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429807</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429807</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429807</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091972</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.294714055011</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156994</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134635</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188011</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908941</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908941</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908941</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908941</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511393</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189239</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290589</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.309241249041</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6224,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687895</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273906</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>558.0193492433381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2424.083128335929</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2241.228293990834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2021.626829013775</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1732.551602357973</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.867114152086</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1188.449944115125</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>960.4603932171079</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.6678140735778</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,13 +7403,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7418,40 +7418,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,40 +7640,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877293</v>
+        <v>60.59164343877296</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079451</v>
+        <v>2.109135423079479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25.88658582607211</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.01218599085092</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692397</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>162.2039267153294</v>
+        <v>162.2039267153284</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241554</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.0073097921332</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194356</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405089</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194325</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012179</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.70888054695533</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194367</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>43.72409101823369</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.72409101823344</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="14">
@@ -26320,37 +26320,37 @@
         <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909297</v>
+        <v>679702.4124909295</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680937288</v>
+        <v>366.4703680939288</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642091</v>
+        <v>68912.53318642093</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774256569</v>
+        <v>85.20559774266889</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.547767403</v>
+        <v>253116.5477674031</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181791</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.920181818</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181799</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181804</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181811</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557691</v>
+        <v>63021.4616455769</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-215850.7405328406</v>
+        <v>-215850.7405328404</v>
       </c>
       <c r="C6" t="n">
-        <v>463558.6428913744</v>
+        <v>463558.6428913741</v>
       </c>
       <c r="D6" t="n">
-        <v>153176.5878575815</v>
+        <v>153176.5878575816</v>
       </c>
       <c r="E6" t="n">
-        <v>145794.3780752343</v>
+        <v>145759.6401497992</v>
       </c>
       <c r="F6" t="n">
-        <v>653279.8196997811</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="G6" t="n">
-        <v>653279.8196997807</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="H6" t="n">
-        <v>653279.8196997805</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="I6" t="n">
-        <v>653279.8196997808</v>
+        <v>653245.0817743454</v>
       </c>
       <c r="J6" t="n">
-        <v>584367.2865133598</v>
+        <v>584332.5485879239</v>
       </c>
       <c r="K6" t="n">
-        <v>653194.6141020383</v>
+        <v>653159.8761766023</v>
       </c>
       <c r="L6" t="n">
-        <v>557897.1735622108</v>
+        <v>557862.4356367757</v>
       </c>
       <c r="M6" t="n">
-        <v>520672.5259708538</v>
+        <v>520637.7880454183</v>
       </c>
       <c r="N6" t="n">
-        <v>653279.8196997808</v>
+        <v>653245.081774345</v>
       </c>
       <c r="O6" t="n">
-        <v>653279.8196997803</v>
+        <v>653245.081774345</v>
       </c>
       <c r="P6" t="n">
-        <v>653279.8196997808</v>
+        <v>653245.081774345</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>613.7700232960514</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>613.7700232960514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734267739</v>
+        <v>0.2849904734268875</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.856274865203927e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.331065236325284</v>
+        <v>0.3310652363255825</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651806</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236325284</v>
+        <v>0.331065236325685</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996103</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236325284</v>
+        <v>0.3310652363255825</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>277.1949443164233</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.4525055708749</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495405</v>
+        <v>192.1118824505036</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>136.7201222593214</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.48524054500679</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807542</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>64.52477270386694</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>88.57591377434667</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
@@ -27558,7 +27558,7 @@
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825652</v>
+        <v>15.10853304825653</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357141015</v>
+        <v>23.14018357141043</v>
       </c>
       <c r="X4" t="n">
-        <v>10.9490966068326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.6689735381485</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>22.99401430656283</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,13 +27831,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
-        <v>28.59078801762757</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>140.341915207942</v>
+        <v>308.2687497772063</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.69627261285828</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.088819058787875e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.386585822314609e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31045,37 +31045,37 @@
         <v>25.26943618524898</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646646</v>
+        <v>95.12510079646643</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.4189488029075</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933472</v>
+        <v>313.8647179933471</v>
       </c>
       <c r="L2" t="n">
         <v>389.3769364876046</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460615</v>
+        <v>433.2568667460614</v>
       </c>
       <c r="N2" t="n">
         <v>440.2674158061214</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316486</v>
+        <v>415.7320362316485</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231209</v>
+        <v>354.8176746231208</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.4532968973325</v>
       </c>
       <c r="R2" t="n">
         <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827649</v>
+        <v>56.22626896827648</v>
       </c>
       <c r="T2" t="n">
         <v>10.80111870142096</v>
@@ -31121,10 +31121,10 @@
         <v>1.320184578410375</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.75020369148967</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.45372342333966</v>
       </c>
       <c r="J3" t="n">
         <v>124.7284912435872</v>
@@ -31133,13 +31133,13 @@
         <v>213.1808579970823</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.6479717289719</v>
       </c>
       <c r="M3" t="n">
         <v>334.504662696348</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.3580057682316</v>
       </c>
       <c r="O3" t="n">
         <v>314.1054948466123</v>
@@ -31148,19 +31148,19 @@
         <v>252.0973516439952</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.5204033774366</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621612</v>
+        <v>81.96724952621609</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.52184951564883</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311992</v>
+        <v>5.32127029631199</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962996</v>
+        <v>0.08685424857962995</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,19 +31200,19 @@
         <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058012</v>
+        <v>9.84044398005801</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923506</v>
+        <v>33.28444650923505</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841626</v>
+        <v>78.25064706841624</v>
       </c>
       <c r="K4" t="n">
         <v>128.589850782353</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.5507370653053</v>
       </c>
       <c r="M4" t="n">
         <v>173.4956805195707</v>
@@ -31227,19 +31227,19 @@
         <v>133.8622359005027</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770378</v>
+        <v>92.67927351770375</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528311</v>
+        <v>49.7656809052831</v>
       </c>
       <c r="S4" t="n">
         <v>19.28847761735295</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477772</v>
+        <v>4.729047720477771</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354611</v>
+        <v>0.0603708219635461</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704892</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870023</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338195</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>320.9147064709955</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>479.6444630806902</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622129</v>
+        <v>28.37304427622124</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836665</v>
+        <v>93.77486694836659</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176174</v>
+        <v>153.6105215176173</v>
       </c>
       <c r="M2" t="n">
         <v>202.9106335187887</v>
@@ -34711,13 +34711,13 @@
         <v>210.8543522095305</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099619</v>
+        <v>185.6338248099618</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.5846788678513</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288308</v>
+        <v>44.14760702288302</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272335</v>
+        <v>101.2260048487954</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490978</v>
+        <v>148.0935919490977</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743297</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>212.0162936848983</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021679</v>
+        <v>171.5092504021678</v>
       </c>
       <c r="P3" t="n">
-        <v>118.122944229665</v>
+        <v>118.1229442296649</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083391</v>
+        <v>28.53862929141511</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34869,13 @@
         <v>213.5025133979571</v>
       </c>
       <c r="O4" t="n">
-        <v>180.1883115783557</v>
+        <v>180.1883115783546</v>
       </c>
       <c r="P4" t="n">
         <v>131.1407951653962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009392</v>
+        <v>6.517230266009364</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,25 +35255,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620056</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>553.2044093850072</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>188.922057956159</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35580,13 +35580,13 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556927</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394538</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>189.5729943876622</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>337.5104291586719</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
